--- a/data/pca/factorExposure/factorExposure_2009-05-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01717094245056272</v>
+        <v>-0.01657570055936538</v>
       </c>
       <c r="C2">
-        <v>0.001717178065853463</v>
+        <v>0.001139083273909854</v>
       </c>
       <c r="D2">
-        <v>0.009858291597395916</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009878901388777063</v>
+      </c>
+      <c r="E2">
+        <v>0.002404583420894309</v>
+      </c>
+      <c r="F2">
+        <v>0.01257551349107752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08859428367689452</v>
+        <v>-0.09134449593313688</v>
       </c>
       <c r="C4">
-        <v>0.02008970432579897</v>
+        <v>0.01546167677993409</v>
       </c>
       <c r="D4">
-        <v>0.07893554154368258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0824402214229327</v>
+      </c>
+      <c r="E4">
+        <v>0.02661098751466422</v>
+      </c>
+      <c r="F4">
+        <v>-0.03353355683184791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-1.920766676420658e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-4.191148035455915e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0002187476579537781</v>
+      </c>
+      <c r="E5">
+        <v>6.689200590665151e-05</v>
+      </c>
+      <c r="F5">
+        <v>9.057008522982485e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1538953043511047</v>
+        <v>-0.1618525895275162</v>
       </c>
       <c r="C6">
-        <v>0.03156851990137143</v>
+        <v>0.03037957941452098</v>
       </c>
       <c r="D6">
-        <v>-0.03650571282099403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02620933166401896</v>
+      </c>
+      <c r="E6">
+        <v>0.01147696208660406</v>
+      </c>
+      <c r="F6">
+        <v>-0.03979117380956516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05918193078939767</v>
+        <v>-0.06180417023794332</v>
       </c>
       <c r="C7">
-        <v>0.002055842735188418</v>
+        <v>-0.001148630539295302</v>
       </c>
       <c r="D7">
-        <v>0.0480618675501861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05342599929472678</v>
+      </c>
+      <c r="E7">
+        <v>0.01473216874188187</v>
+      </c>
+      <c r="F7">
+        <v>-0.04892303331569166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06081145570364768</v>
+        <v>-0.05698924608876936</v>
       </c>
       <c r="C8">
-        <v>-0.00987851901968357</v>
+        <v>-0.01165729854181789</v>
       </c>
       <c r="D8">
-        <v>0.0270513073942768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03058276920240116</v>
+      </c>
+      <c r="E8">
+        <v>0.01944183873243496</v>
+      </c>
+      <c r="F8">
+        <v>0.02899411322455367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06849578377372445</v>
+        <v>-0.07089814134564398</v>
       </c>
       <c r="C9">
-        <v>0.01600517615699136</v>
+        <v>0.0109323051022613</v>
       </c>
       <c r="D9">
-        <v>0.08084565520647584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08567096033041975</v>
+      </c>
+      <c r="E9">
+        <v>0.02460735592253174</v>
+      </c>
+      <c r="F9">
+        <v>-0.04923932863805957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08719285244280151</v>
+        <v>-0.08809641211267887</v>
       </c>
       <c r="C10">
-        <v>0.01736608258881813</v>
+        <v>0.02238141092627773</v>
       </c>
       <c r="D10">
-        <v>-0.1658614093846446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1589194151700865</v>
+      </c>
+      <c r="E10">
+        <v>-0.0312803633919931</v>
+      </c>
+      <c r="F10">
+        <v>0.06036848079171178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08979135471340495</v>
+        <v>-0.08680665461775926</v>
       </c>
       <c r="C11">
-        <v>0.01754903578686324</v>
+        <v>0.01222547114876018</v>
       </c>
       <c r="D11">
-        <v>0.1119009917878492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.117997213208389</v>
+      </c>
+      <c r="E11">
+        <v>0.05169820181935733</v>
+      </c>
+      <c r="F11">
+        <v>-0.02614840767408312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09667586165294655</v>
+        <v>-0.09089372713474664</v>
       </c>
       <c r="C12">
-        <v>0.01617998978612351</v>
+        <v>0.01001433057928057</v>
       </c>
       <c r="D12">
-        <v>0.1177141682701664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.132950281804856</v>
+      </c>
+      <c r="E12">
+        <v>0.05178445186538674</v>
+      </c>
+      <c r="F12">
+        <v>-0.03231002382013861</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04471115311757391</v>
+        <v>-0.04385355077657134</v>
       </c>
       <c r="C13">
-        <v>0.006931687611932508</v>
+        <v>0.003248115869674067</v>
       </c>
       <c r="D13">
-        <v>0.04574591711987505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05400502016395338</v>
+      </c>
+      <c r="E13">
+        <v>0.0004791279465568775</v>
+      </c>
+      <c r="F13">
+        <v>-0.004618851609746902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.0201562997518602</v>
+        <v>-0.02372570679951526</v>
       </c>
       <c r="C14">
-        <v>0.01545217273391765</v>
+        <v>0.01418273676098932</v>
       </c>
       <c r="D14">
-        <v>0.03197432306273608</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03319880272011012</v>
+      </c>
+      <c r="E14">
+        <v>0.02220964244343486</v>
+      </c>
+      <c r="F14">
+        <v>-0.01207250187943441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03428136723354051</v>
+        <v>-0.03436647462081174</v>
       </c>
       <c r="C15">
-        <v>0.007798340942402621</v>
+        <v>0.00604295864847742</v>
       </c>
       <c r="D15">
-        <v>0.04589665493782297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04622296537376133</v>
+      </c>
+      <c r="E15">
+        <v>0.008287700588547603</v>
+      </c>
+      <c r="F15">
+        <v>-0.03016296791088696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07344038679639296</v>
+        <v>-0.07133340415938595</v>
       </c>
       <c r="C16">
-        <v>0.007512991372207553</v>
+        <v>0.001922008589296212</v>
       </c>
       <c r="D16">
-        <v>0.1152842177857241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.129072419691724</v>
+      </c>
+      <c r="E16">
+        <v>0.06410913696141883</v>
+      </c>
+      <c r="F16">
+        <v>-0.0296681273412238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.001294584832434986</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0005431880453310872</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002267376096558176</v>
+      </c>
+      <c r="E17">
+        <v>0.002089379912269262</v>
+      </c>
+      <c r="F17">
+        <v>0.002246361334614491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02552674801360877</v>
+        <v>-0.04310238388187045</v>
       </c>
       <c r="C18">
-        <v>-0.001585847670692047</v>
+        <v>-0.001532194642267041</v>
       </c>
       <c r="D18">
-        <v>0.02182221990166343</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01673047357066042</v>
+      </c>
+      <c r="E18">
+        <v>-0.003599825598930222</v>
+      </c>
+      <c r="F18">
+        <v>0.008850822360673033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06455299985875773</v>
+        <v>-0.06314995021596953</v>
       </c>
       <c r="C20">
-        <v>0.006092626818113618</v>
+        <v>0.002177293473070355</v>
       </c>
       <c r="D20">
-        <v>0.07260304284137369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07871918040670156</v>
+      </c>
+      <c r="E20">
+        <v>0.06274797709538509</v>
+      </c>
+      <c r="F20">
+        <v>-0.03148153023796096</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04124341851508246</v>
+        <v>-0.04293252748661153</v>
       </c>
       <c r="C21">
-        <v>0.01017785106077737</v>
+        <v>0.007473944079938835</v>
       </c>
       <c r="D21">
-        <v>0.03495044889232712</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03622417306670325</v>
+      </c>
+      <c r="E21">
+        <v>0.003447820454250229</v>
+      </c>
+      <c r="F21">
+        <v>0.02377938570743796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.0398156582927041</v>
+        <v>-0.04162969635057378</v>
       </c>
       <c r="C22">
-        <v>0.001073762434508621</v>
+        <v>0.000817480509518659</v>
       </c>
       <c r="D22">
-        <v>0.0007930183164784381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.006896633416058179</v>
+      </c>
+      <c r="E22">
+        <v>0.03584573387654236</v>
+      </c>
+      <c r="F22">
+        <v>0.05150703375956327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03977036057276079</v>
+        <v>-0.04159863355547831</v>
       </c>
       <c r="C23">
-        <v>0.001059709247163354</v>
+        <v>0.000805724225249979</v>
       </c>
       <c r="D23">
-        <v>0.0008214972820358244</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.00691097607400539</v>
+      </c>
+      <c r="E23">
+        <v>0.0358751432750809</v>
+      </c>
+      <c r="F23">
+        <v>0.05156165325357102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08083905635441471</v>
+        <v>-0.077380353365819</v>
       </c>
       <c r="C24">
-        <v>0.008223230622106479</v>
+        <v>0.002802562983367294</v>
       </c>
       <c r="D24">
-        <v>0.1164481607610261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1221091020124292</v>
+      </c>
+      <c r="E24">
+        <v>0.05127034249777251</v>
+      </c>
+      <c r="F24">
+        <v>-0.03223350640236582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08592952787764334</v>
+        <v>-0.08248404825634209</v>
       </c>
       <c r="C25">
-        <v>0.01058237806165356</v>
+        <v>0.005727225345821077</v>
       </c>
       <c r="D25">
-        <v>0.1041982956595537</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1103733235672677</v>
+      </c>
+      <c r="E25">
+        <v>0.03446121846063225</v>
+      </c>
+      <c r="F25">
+        <v>-0.02860001525593229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05734738585228907</v>
+        <v>-0.06058925034459383</v>
       </c>
       <c r="C26">
-        <v>0.01840123515086894</v>
+        <v>0.01504177011835353</v>
       </c>
       <c r="D26">
-        <v>0.03543736219022114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04571224436537346</v>
+      </c>
+      <c r="E26">
+        <v>0.03348647414175529</v>
+      </c>
+      <c r="F26">
+        <v>0.006087881797413636</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1352190009153746</v>
+        <v>-0.1440351141939717</v>
       </c>
       <c r="C28">
-        <v>0.01668839348765378</v>
+        <v>0.02442530198152684</v>
       </c>
       <c r="D28">
-        <v>-0.2630037327268828</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2584408093023398</v>
+      </c>
+      <c r="E28">
+        <v>-0.06769471722036655</v>
+      </c>
+      <c r="F28">
+        <v>-0.003927189766630537</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.0261267995839584</v>
+        <v>-0.02873175767439346</v>
       </c>
       <c r="C29">
-        <v>0.01011027307697228</v>
+        <v>0.009263063439353998</v>
       </c>
       <c r="D29">
-        <v>0.0298873288038553</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0306149362340676</v>
+      </c>
+      <c r="E29">
+        <v>0.01850952225116222</v>
+      </c>
+      <c r="F29">
+        <v>0.01351071001249977</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.0587634151930433</v>
+        <v>-0.0564281701221705</v>
       </c>
       <c r="C30">
-        <v>0.008200591771276</v>
+        <v>0.003246632409956571</v>
       </c>
       <c r="D30">
-        <v>0.07898964747800755</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08724996682478461</v>
+      </c>
+      <c r="E30">
+        <v>0.01490018124580444</v>
+      </c>
+      <c r="F30">
+        <v>-0.08155126416418747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05043661967382377</v>
+        <v>-0.05104507504963001</v>
       </c>
       <c r="C31">
-        <v>0.01777864993870434</v>
+        <v>0.01642971830071453</v>
       </c>
       <c r="D31">
-        <v>0.02213028205255323</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02491353482301933</v>
+      </c>
+      <c r="E31">
+        <v>0.0296867510301709</v>
+      </c>
+      <c r="F31">
+        <v>0.001039661429953804</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04714571020654715</v>
+        <v>-0.05127836569912107</v>
       </c>
       <c r="C32">
-        <v>0.002226291577650006</v>
+        <v>-0.001075009337948521</v>
       </c>
       <c r="D32">
-        <v>0.02894999895812314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03330426320331271</v>
+      </c>
+      <c r="E32">
+        <v>0.03505953066519722</v>
+      </c>
+      <c r="F32">
+        <v>-0.003128057808105694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09025020819238537</v>
+        <v>-0.09004645924300317</v>
       </c>
       <c r="C33">
-        <v>0.01422857698609581</v>
+        <v>0.008311125321355603</v>
       </c>
       <c r="D33">
-        <v>0.09084113027549064</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1045068837579607</v>
+      </c>
+      <c r="E33">
+        <v>0.04903136082524265</v>
+      </c>
+      <c r="F33">
+        <v>-0.04455726409536983</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06870438863718918</v>
+        <v>-0.06695555993209421</v>
       </c>
       <c r="C34">
-        <v>0.01599278159495838</v>
+        <v>0.01114643288820231</v>
       </c>
       <c r="D34">
-        <v>0.09809161148191692</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1103814420403696</v>
+      </c>
+      <c r="E34">
+        <v>0.03898198123899019</v>
+      </c>
+      <c r="F34">
+        <v>-0.03691111756943056</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02600559796260189</v>
+        <v>-0.02762449326219258</v>
       </c>
       <c r="C35">
-        <v>0.004297361315438689</v>
+        <v>0.00377383815370903</v>
       </c>
       <c r="D35">
-        <v>0.008012654078984245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01135404755977119</v>
+      </c>
+      <c r="E35">
+        <v>0.01580612663159539</v>
+      </c>
+      <c r="F35">
+        <v>-0.000154068178074332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02460793853051068</v>
+        <v>-0.02861281703428187</v>
       </c>
       <c r="C36">
-        <v>0.008280884635293492</v>
+        <v>0.007283907861473668</v>
       </c>
       <c r="D36">
-        <v>0.03862362939390315</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0396217223032584</v>
+      </c>
+      <c r="E36">
+        <v>0.01964442078622851</v>
+      </c>
+      <c r="F36">
+        <v>-0.0158690584755963</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.002072084353736042</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.000715370499823287</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003447745816627559</v>
+      </c>
+      <c r="E37">
+        <v>0.0006248560687659192</v>
+      </c>
+      <c r="F37">
+        <v>0.001275352054043671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1092973193039613</v>
+        <v>-0.09868301978852172</v>
       </c>
       <c r="C39">
-        <v>0.02334169843386974</v>
+        <v>0.01691691259772372</v>
       </c>
       <c r="D39">
-        <v>0.1496465578484559</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1520189558613946</v>
+      </c>
+      <c r="E39">
+        <v>0.0622647020824445</v>
+      </c>
+      <c r="F39">
+        <v>-0.02361357426315617</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.0388899255202474</v>
+        <v>-0.044463683505391</v>
       </c>
       <c r="C40">
-        <v>0.009864571922938018</v>
+        <v>0.008564596177823212</v>
       </c>
       <c r="D40">
-        <v>0.02397030388396649</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03218614825890808</v>
+      </c>
+      <c r="E40">
+        <v>0.003487824785161285</v>
+      </c>
+      <c r="F40">
+        <v>0.01678937139100278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02483204788073407</v>
+        <v>-0.02718865398451383</v>
       </c>
       <c r="C41">
-        <v>0.00763937981670681</v>
+        <v>0.006946659685545783</v>
       </c>
       <c r="D41">
-        <v>0.007447485451841821</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.009434403325911427</v>
+      </c>
+      <c r="E41">
+        <v>0.01301176242650157</v>
+      </c>
+      <c r="F41">
+        <v>0.007103041854472658</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04110909094651907</v>
+        <v>-0.03970222012642612</v>
       </c>
       <c r="C43">
-        <v>0.008420897208129365</v>
+        <v>0.007796721583957732</v>
       </c>
       <c r="D43">
-        <v>0.0179219166923567</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01986092854551384</v>
+      </c>
+      <c r="E43">
+        <v>0.0276689694767681</v>
+      </c>
+      <c r="F43">
+        <v>0.01599897495061618</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06685630544648094</v>
+        <v>-0.07684818690187495</v>
       </c>
       <c r="C44">
-        <v>0.02435165688218888</v>
+        <v>0.02023633838362776</v>
       </c>
       <c r="D44">
-        <v>0.09497153594190912</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09443649423677983</v>
+      </c>
+      <c r="E44">
+        <v>0.06080908801655291</v>
+      </c>
+      <c r="F44">
+        <v>-0.1707887800878891</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02186560708956132</v>
+        <v>-0.0246340623910017</v>
       </c>
       <c r="C46">
-        <v>0.004656266487466035</v>
+        <v>0.003717894701710676</v>
       </c>
       <c r="D46">
-        <v>0.01012972632526777</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01352472848927402</v>
+      </c>
+      <c r="E46">
+        <v>0.03120538411791216</v>
+      </c>
+      <c r="F46">
+        <v>0.005773966068542436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05386923706383234</v>
+        <v>-0.05308316057260725</v>
       </c>
       <c r="C47">
-        <v>0.00600510331578636</v>
+        <v>0.004935331060557401</v>
       </c>
       <c r="D47">
-        <v>0.006990382628030795</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01079039770003334</v>
+      </c>
+      <c r="E47">
+        <v>0.02552882751144986</v>
+      </c>
+      <c r="F47">
+        <v>0.03116543105801736</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04859780319240146</v>
+        <v>-0.05171655478977187</v>
       </c>
       <c r="C48">
-        <v>0.00551825732942807</v>
+        <v>0.002866395426485433</v>
       </c>
       <c r="D48">
-        <v>0.04830840036338035</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0508558368479913</v>
+      </c>
+      <c r="E48">
+        <v>-0.002612057383800919</v>
+      </c>
+      <c r="F48">
+        <v>-0.01357117088683863</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1979900972889763</v>
+        <v>-0.2003268594544454</v>
       </c>
       <c r="C49">
-        <v>0.0245524458455798</v>
+        <v>0.02236942353300736</v>
       </c>
       <c r="D49">
-        <v>-0.01266985073949409</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.00584956489286559</v>
+      </c>
+      <c r="E49">
+        <v>0.02792259771338928</v>
+      </c>
+      <c r="F49">
+        <v>-0.05068355331731206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04909974336603598</v>
+        <v>-0.05160848694592023</v>
       </c>
       <c r="C50">
-        <v>0.01349107571033271</v>
+        <v>0.01218023196095212</v>
       </c>
       <c r="D50">
-        <v>0.02210116058417279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02468800999986875</v>
+      </c>
+      <c r="E50">
+        <v>0.03259437646896717</v>
+      </c>
+      <c r="F50">
+        <v>-0.009831430501352221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1542433965585577</v>
+        <v>-0.14733614921379</v>
       </c>
       <c r="C52">
-        <v>0.02225675923848462</v>
+        <v>0.02001510649277382</v>
       </c>
       <c r="D52">
-        <v>0.04137455055373589</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04346729300256048</v>
+      </c>
+      <c r="E52">
+        <v>0.02039836774428753</v>
+      </c>
+      <c r="F52">
+        <v>-0.04179810835333076</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1743489965860737</v>
+        <v>-0.1681970055290818</v>
       </c>
       <c r="C53">
-        <v>0.02360274785294816</v>
+        <v>0.0232447290555821</v>
       </c>
       <c r="D53">
-        <v>0.005196853120912638</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006852278337849706</v>
+      </c>
+      <c r="E53">
+        <v>0.02680251362777025</v>
+      </c>
+      <c r="F53">
+        <v>-0.07531857093906229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01613445531096422</v>
+        <v>-0.01835938243010861</v>
       </c>
       <c r="C54">
-        <v>0.01204168693231894</v>
+        <v>0.01097662675700877</v>
       </c>
       <c r="D54">
-        <v>0.02949837567070226</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02897773518499819</v>
+      </c>
+      <c r="E54">
+        <v>0.02051096863568175</v>
+      </c>
+      <c r="F54">
+        <v>0.002873349971080877</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1182452676447714</v>
+        <v>-0.1160350166540982</v>
       </c>
       <c r="C55">
-        <v>0.02050154631853204</v>
+        <v>0.02026451755557293</v>
       </c>
       <c r="D55">
-        <v>0.003200941992711352</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008655803811348249</v>
+      </c>
+      <c r="E55">
+        <v>0.02490304649215412</v>
+      </c>
+      <c r="F55">
+        <v>-0.04630738429519528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1807753514513184</v>
+        <v>-0.1753937439121505</v>
       </c>
       <c r="C56">
-        <v>0.02170274510767727</v>
+        <v>0.02150539863713834</v>
       </c>
       <c r="D56">
-        <v>-0.007444621269698453</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.002080418797472819</v>
+      </c>
+      <c r="E56">
+        <v>0.03037988107775039</v>
+      </c>
+      <c r="F56">
+        <v>-0.05518868739142358</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04635712521664326</v>
+        <v>-0.04524079286880662</v>
       </c>
       <c r="C58">
-        <v>0.004966335336431726</v>
+        <v>0.0001994721509352039</v>
       </c>
       <c r="D58">
-        <v>0.06651076593362285</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07695390871919901</v>
+      </c>
+      <c r="E58">
+        <v>0.03684478719480908</v>
+      </c>
+      <c r="F58">
+        <v>0.03516437651625953</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1621580246338385</v>
+        <v>-0.1683914694708893</v>
       </c>
       <c r="C59">
-        <v>0.01869404886666871</v>
+        <v>0.02500201217147489</v>
       </c>
       <c r="D59">
-        <v>-0.2223640592961078</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2169532251392995</v>
+      </c>
+      <c r="E59">
+        <v>-0.05148464506520375</v>
+      </c>
+      <c r="F59">
+        <v>0.04235711286946441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2381926738774753</v>
+        <v>-0.2300220105831138</v>
       </c>
       <c r="C60">
-        <v>0.006130971003248549</v>
+        <v>0.002554584983319617</v>
       </c>
       <c r="D60">
-        <v>0.03706851165582353</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03991197525689934</v>
+      </c>
+      <c r="E60">
+        <v>-7.786137165046342e-05</v>
+      </c>
+      <c r="F60">
+        <v>-0.006588085619510063</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08053242595668796</v>
+        <v>-0.07441615252594218</v>
       </c>
       <c r="C61">
-        <v>0.01714337694285686</v>
+        <v>0.0116475226696829</v>
       </c>
       <c r="D61">
-        <v>0.1115683273996907</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1173353036193839</v>
+      </c>
+      <c r="E61">
+        <v>0.04147415537770335</v>
+      </c>
+      <c r="F61">
+        <v>-0.01072081637758365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1730439554360572</v>
+        <v>-0.1685393859695355</v>
       </c>
       <c r="C62">
-        <v>0.02536540102981122</v>
+        <v>0.02406846507751376</v>
       </c>
       <c r="D62">
-        <v>-3.029852115087276e-05</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.007699754047810639</v>
+      </c>
+      <c r="E62">
+        <v>0.03330040084614132</v>
+      </c>
+      <c r="F62">
+        <v>-0.04171270393403692</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04216714143611237</v>
+        <v>-0.04613111423683894</v>
       </c>
       <c r="C63">
-        <v>0.005958033474710159</v>
+        <v>0.002646045757628745</v>
       </c>
       <c r="D63">
-        <v>0.04937343119701507</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06073850559875784</v>
+      </c>
+      <c r="E63">
+        <v>0.02612165218651188</v>
+      </c>
+      <c r="F63">
+        <v>-0.001401393537593956</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1147700531108945</v>
+        <v>-0.1114433841312641</v>
       </c>
       <c r="C64">
-        <v>0.01769032157475045</v>
+        <v>0.01416871664925005</v>
       </c>
       <c r="D64">
-        <v>0.03391551382812294</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0420130488244838</v>
+      </c>
+      <c r="E64">
+        <v>0.02533265408006781</v>
+      </c>
+      <c r="F64">
+        <v>-0.02676481416258148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1454540858598607</v>
+        <v>-0.1526129524984713</v>
       </c>
       <c r="C65">
-        <v>0.03770205733304318</v>
+        <v>0.03717028278848208</v>
       </c>
       <c r="D65">
-        <v>-0.05793384068173866</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04571441396530775</v>
+      </c>
+      <c r="E65">
+        <v>0.005860400286659721</v>
+      </c>
+      <c r="F65">
+        <v>-0.03689098998505586</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1316444896092154</v>
+        <v>-0.1183114285500317</v>
       </c>
       <c r="C66">
-        <v>0.0217663637040488</v>
+        <v>0.01503816707053112</v>
       </c>
       <c r="D66">
-        <v>0.1331049893007256</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1415108361081855</v>
+      </c>
+      <c r="E66">
+        <v>0.0658537918662043</v>
+      </c>
+      <c r="F66">
+        <v>-0.02884497972019978</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06355971821585861</v>
+        <v>-0.05638787152035792</v>
       </c>
       <c r="C67">
-        <v>0.006803852870503827</v>
+        <v>0.004523065017681318</v>
       </c>
       <c r="D67">
-        <v>0.05498037957128406</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05830977438451501</v>
+      </c>
+      <c r="E67">
+        <v>0.02413709251778163</v>
+      </c>
+      <c r="F67">
+        <v>0.03282968893581191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1094416299418205</v>
+        <v>-0.1185075291421162</v>
       </c>
       <c r="C68">
-        <v>0.02670410683951059</v>
+        <v>0.03501339982129038</v>
       </c>
       <c r="D68">
-        <v>-0.2623909664291291</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2592224259722712</v>
+      </c>
+      <c r="E68">
+        <v>-0.0882296190826663</v>
+      </c>
+      <c r="F68">
+        <v>-0.0001005376669081919</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.039381459941727</v>
+        <v>-0.03860336457482631</v>
       </c>
       <c r="C69">
-        <v>0.002680840801986509</v>
+        <v>0.00171928382223961</v>
       </c>
       <c r="D69">
-        <v>0.008578203793016746</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009717835340751765</v>
+      </c>
+      <c r="E69">
+        <v>0.02846600290683679</v>
+      </c>
+      <c r="F69">
+        <v>0.0006311541736608883</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06807756731723925</v>
+        <v>-0.06779760037193513</v>
       </c>
       <c r="C70">
-        <v>-0.02375700402610444</v>
+        <v>-0.02598596728572888</v>
       </c>
       <c r="D70">
-        <v>0.02471720641270244</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02894110075942287</v>
+      </c>
+      <c r="E70">
+        <v>-0.02230855586761854</v>
+      </c>
+      <c r="F70">
+        <v>0.1845967342261057</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1281400317258231</v>
+        <v>-0.1387797035914278</v>
       </c>
       <c r="C71">
-        <v>0.03155125105899231</v>
+        <v>0.03991292486459035</v>
       </c>
       <c r="D71">
-        <v>-0.2775956613648714</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2690229227158554</v>
+      </c>
+      <c r="E71">
+        <v>-0.09853005782157669</v>
+      </c>
+      <c r="F71">
+        <v>-0.003703039962757465</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1366790744585673</v>
+        <v>-0.1436647820656163</v>
       </c>
       <c r="C72">
-        <v>0.02970475201914589</v>
+        <v>0.02990864818554217</v>
       </c>
       <c r="D72">
-        <v>-0.0004341500024331616</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003198680167771335</v>
+      </c>
+      <c r="E72">
+        <v>0.03935721739405922</v>
+      </c>
+      <c r="F72">
+        <v>-0.02910244048251072</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2024631348262484</v>
+        <v>-0.2039048122119965</v>
       </c>
       <c r="C73">
-        <v>0.0196759083999715</v>
+        <v>0.01573773211625903</v>
       </c>
       <c r="D73">
-        <v>0.008777846180394788</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.0183565948366669</v>
+      </c>
+      <c r="E73">
+        <v>0.06393393929713995</v>
+      </c>
+      <c r="F73">
+        <v>-0.04570979693024039</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09053572221244444</v>
+        <v>-0.0912880504628921</v>
       </c>
       <c r="C74">
-        <v>0.01508640817498907</v>
+        <v>0.01434422681258285</v>
       </c>
       <c r="D74">
-        <v>0.01322223166492353</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01680827798590701</v>
+      </c>
+      <c r="E74">
+        <v>0.04107298951408812</v>
+      </c>
+      <c r="F74">
+        <v>-0.05228103416854489</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1330922633574073</v>
+        <v>-0.1251500498891628</v>
       </c>
       <c r="C75">
-        <v>0.03280623146424742</v>
+        <v>0.03081705415841484</v>
       </c>
       <c r="D75">
-        <v>0.02321811861096603</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.0296275705018794</v>
+      </c>
+      <c r="E75">
+        <v>0.05540982166681071</v>
+      </c>
+      <c r="F75">
+        <v>-0.0223986187275556</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08034178647410044</v>
+        <v>-0.09171405278590189</v>
       </c>
       <c r="C77">
-        <v>0.01475052950329649</v>
+        <v>0.009682443753853711</v>
       </c>
       <c r="D77">
-        <v>0.1133131421450074</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1161130504405618</v>
+      </c>
+      <c r="E77">
+        <v>0.04755814355828494</v>
+      </c>
+      <c r="F77">
+        <v>-0.03580631703959527</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1006816538277028</v>
+        <v>-0.1009122456836177</v>
       </c>
       <c r="C78">
-        <v>0.04567918078325945</v>
+        <v>0.0415802552883099</v>
       </c>
       <c r="D78">
-        <v>0.1127482923611655</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1097442084129901</v>
+      </c>
+      <c r="E78">
+        <v>0.07540644000731273</v>
+      </c>
+      <c r="F78">
+        <v>-0.0546358821856962</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1677958169846291</v>
+        <v>-0.1637831901587377</v>
       </c>
       <c r="C79">
-        <v>0.02821957914197233</v>
+        <v>0.02678427777110933</v>
       </c>
       <c r="D79">
-        <v>0.006382911426838423</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01353279062246448</v>
+      </c>
+      <c r="E79">
+        <v>0.04586988408784791</v>
+      </c>
+      <c r="F79">
+        <v>-0.01369967658885021</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08048551822899576</v>
+        <v>-0.07918409050247069</v>
       </c>
       <c r="C80">
-        <v>0.003252835771572898</v>
+        <v>0.0005324142284870687</v>
       </c>
       <c r="D80">
-        <v>0.05386532607262828</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05331697297359712</v>
+      </c>
+      <c r="E80">
+        <v>0.03746750039897011</v>
+      </c>
+      <c r="F80">
+        <v>0.02714616547454834</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1205600943429501</v>
+        <v>-0.1151097728080923</v>
       </c>
       <c r="C81">
-        <v>0.03469434023886724</v>
+        <v>0.03395661711780381</v>
       </c>
       <c r="D81">
-        <v>0.006055008994389481</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01134749544961177</v>
+      </c>
+      <c r="E81">
+        <v>0.05124206800791047</v>
+      </c>
+      <c r="F81">
+        <v>-0.0182763301270571</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1663358902851432</v>
+        <v>-0.1644266545693068</v>
       </c>
       <c r="C82">
-        <v>0.02848678966637298</v>
+        <v>0.02860688131037262</v>
       </c>
       <c r="D82">
-        <v>0.006923596703003757</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.005034098249549247</v>
+      </c>
+      <c r="E82">
+        <v>0.0252209773845416</v>
+      </c>
+      <c r="F82">
+        <v>-0.08400032042257173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05970983895068734</v>
+        <v>-0.05452016444599768</v>
       </c>
       <c r="C83">
-        <v>0.005845133463797911</v>
+        <v>0.00376817845857843</v>
       </c>
       <c r="D83">
-        <v>0.03684870967727264</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03922945173391877</v>
+      </c>
+      <c r="E83">
+        <v>-0.0008484307018692349</v>
+      </c>
+      <c r="F83">
+        <v>0.03607585249291453</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05983723966103809</v>
+        <v>-0.05530472424482663</v>
       </c>
       <c r="C84">
-        <v>0.01381141076250745</v>
+        <v>0.01097145719457771</v>
       </c>
       <c r="D84">
-        <v>0.07420553945661125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07583731228370591</v>
+      </c>
+      <c r="E84">
+        <v>0.01227622262801831</v>
+      </c>
+      <c r="F84">
+        <v>-0.01657971356422559</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.139910343836485</v>
+        <v>-0.1349640556517528</v>
       </c>
       <c r="C85">
-        <v>0.03206476890025022</v>
+        <v>0.03130831600472073</v>
       </c>
       <c r="D85">
-        <v>0.005212644965383872</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009524140426418491</v>
+      </c>
+      <c r="E85">
+        <v>0.03487585485048617</v>
+      </c>
+      <c r="F85">
+        <v>-0.04907792242125454</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1006373801221472</v>
+        <v>-0.09321976207719915</v>
       </c>
       <c r="C86">
-        <v>-0.002076747746697886</v>
+        <v>-0.004914493401250449</v>
       </c>
       <c r="D86">
-        <v>0.01793273480827955</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05272838271601916</v>
+      </c>
+      <c r="E86">
+        <v>0.2413371362845963</v>
+      </c>
+      <c r="F86">
+        <v>0.891632264115532</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09435405637777217</v>
+        <v>-0.09143684802086388</v>
       </c>
       <c r="C87">
-        <v>0.02879388094577815</v>
+        <v>0.02110796403492056</v>
       </c>
       <c r="D87">
-        <v>0.0714110855369907</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08995810543339931</v>
+      </c>
+      <c r="E87">
+        <v>-0.0587592743626384</v>
+      </c>
+      <c r="F87">
+        <v>-0.04879117550886909</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06313562274288287</v>
+        <v>-0.06143987345562916</v>
       </c>
       <c r="C88">
-        <v>0.006416011721592973</v>
+        <v>0.003489485883105368</v>
       </c>
       <c r="D88">
-        <v>0.04894239226272337</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04961826083702681</v>
+      </c>
+      <c r="E88">
+        <v>0.02675203324892979</v>
+      </c>
+      <c r="F88">
+        <v>-0.01435294521154939</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.120130297385483</v>
+        <v>-0.1284361766585057</v>
       </c>
       <c r="C89">
-        <v>0.007550242400997762</v>
+        <v>0.01524825147568474</v>
       </c>
       <c r="D89">
-        <v>-0.2388442241868013</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2407085870560483</v>
+      </c>
+      <c r="E89">
+        <v>-0.08982242780470982</v>
+      </c>
+      <c r="F89">
+        <v>0.009617913319973933</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1395455650197792</v>
+        <v>-0.1536930803825713</v>
       </c>
       <c r="C90">
-        <v>0.02763378078308466</v>
+        <v>0.03656925628386541</v>
       </c>
       <c r="D90">
-        <v>-0.2639780421372355</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2668204490147857</v>
+      </c>
+      <c r="E90">
+        <v>-0.115833427436658</v>
+      </c>
+      <c r="F90">
+        <v>0.01076895406666816</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1236930850030571</v>
+        <v>-0.1203751700366139</v>
       </c>
       <c r="C91">
-        <v>0.02283608582436771</v>
+        <v>0.02266574296539419</v>
       </c>
       <c r="D91">
-        <v>-0.02104796472275717</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01646120394061832</v>
+      </c>
+      <c r="E91">
+        <v>0.05500395434151036</v>
+      </c>
+      <c r="F91">
+        <v>0.001091068837967824</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1401809198270733</v>
+        <v>-0.1461630745237902</v>
       </c>
       <c r="C92">
-        <v>0.01824710295080024</v>
+        <v>0.02734561226477823</v>
       </c>
       <c r="D92">
-        <v>-0.292721876844401</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2911182845904969</v>
+      </c>
+      <c r="E92">
+        <v>-0.1030287515207831</v>
+      </c>
+      <c r="F92">
+        <v>0.02134293980027009</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.144304451866379</v>
+        <v>-0.1564808120763346</v>
       </c>
       <c r="C93">
-        <v>0.02413013805492071</v>
+        <v>0.03185770907671014</v>
       </c>
       <c r="D93">
-        <v>-0.2613022541855096</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2607360278205056</v>
+      </c>
+      <c r="E93">
+        <v>-0.07391761906319103</v>
+      </c>
+      <c r="F93">
+        <v>-0.003594714205258168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1325671382132971</v>
+        <v>-0.1247815932386362</v>
       </c>
       <c r="C94">
-        <v>0.02910866752320283</v>
+        <v>0.02658517875472881</v>
       </c>
       <c r="D94">
-        <v>0.03776986418966629</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04171368812814223</v>
+      </c>
+      <c r="E94">
+        <v>0.05660620018446765</v>
+      </c>
+      <c r="F94">
+        <v>-0.03301848677887179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1266601880578246</v>
+        <v>-0.1296094972988663</v>
       </c>
       <c r="C95">
-        <v>0.01145728139270754</v>
+        <v>0.00641800234362732</v>
       </c>
       <c r="D95">
-        <v>0.08924881081661129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09967677285073709</v>
+      </c>
+      <c r="E95">
+        <v>0.0605169072244576</v>
+      </c>
+      <c r="F95">
+        <v>-0.006350654703438775</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1365192576051654</v>
+        <v>-0.1281318091946089</v>
       </c>
       <c r="C96">
-        <v>-0.9849556208955403</v>
+        <v>-0.9851043353619369</v>
       </c>
       <c r="D96">
-        <v>-0.02033557227074856</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05004150457167067</v>
+      </c>
+      <c r="E96">
+        <v>0.04842172336384621</v>
+      </c>
+      <c r="F96">
+        <v>-0.0433018811982271</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1870410911597846</v>
+        <v>-0.1914932978309961</v>
       </c>
       <c r="C97">
-        <v>-0.00229091951782008</v>
+        <v>-0.00254593377209873</v>
       </c>
       <c r="D97">
-        <v>-0.02996299326341921</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.03255983041996667</v>
+      </c>
+      <c r="E97">
+        <v>0.03841267395788148</v>
+      </c>
+      <c r="F97">
+        <v>0.1155570857876498</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1999852431413518</v>
+        <v>-0.2062921255641195</v>
       </c>
       <c r="C98">
-        <v>0.01461682618124763</v>
+        <v>0.01060309305687086</v>
       </c>
       <c r="D98">
-        <v>0.01299386941364312</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01484163114565358</v>
+      </c>
+      <c r="E98">
+        <v>-0.07872057829894448</v>
+      </c>
+      <c r="F98">
+        <v>0.09684255927771934</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05627414778125268</v>
+        <v>-0.05581456562661079</v>
       </c>
       <c r="C99">
-        <v>-0.001271845092467005</v>
+        <v>-0.003344355198376761</v>
       </c>
       <c r="D99">
-        <v>0.03435346379503226</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04077241355359509</v>
+      </c>
+      <c r="E99">
+        <v>0.02620003507569356</v>
+      </c>
+      <c r="F99">
+        <v>-0.003005329722672655</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1489669244465106</v>
+        <v>-0.1351430981994145</v>
       </c>
       <c r="C100">
-        <v>-0.03487962199739614</v>
+        <v>-0.04675485928160455</v>
       </c>
       <c r="D100">
-        <v>0.4029624109443235</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3629694219383358</v>
+      </c>
+      <c r="E100">
+        <v>-0.877078712293485</v>
+      </c>
+      <c r="F100">
+        <v>0.1675311224008253</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02612421833813353</v>
+        <v>-0.02877702319840523</v>
       </c>
       <c r="C101">
-        <v>0.01011167948122113</v>
+        <v>0.009286779486024577</v>
       </c>
       <c r="D101">
-        <v>0.02943604628665249</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03018248543402667</v>
+      </c>
+      <c r="E101">
+        <v>0.01809727928322138</v>
+      </c>
+      <c r="F101">
+        <v>0.01484407141490751</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
